--- a/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 лгрсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 лгрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\17,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\17,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA19C96D-C1D5-4E75-84CC-F32DA979E96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D339CC-5CB4-4FDE-91A1-A87A346C39CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$118</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
   <si>
     <t>Период: 10.01.2024 - 17.01.2024</t>
   </si>
@@ -397,9 +397,6 @@
     <t>раз</t>
   </si>
   <si>
-    <t>заказ в дороге</t>
-  </si>
-  <si>
     <t>ср</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
   </si>
   <si>
     <t>опт</t>
-  </si>
-  <si>
-    <t>коментарий</t>
   </si>
   <si>
     <t>вес</t>
@@ -483,6 +477,15 @@
   <si>
     <t>20,01,(2)</t>
   </si>
+  <si>
+    <t>ср нов</t>
+  </si>
+  <si>
+    <t>заказ в пути</t>
+  </si>
+  <si>
+    <t>комментарии</t>
+  </si>
 </sst>
 </file>
 
@@ -499,6 +502,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8709,8 +8714,8 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AC1048576"/>
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8771,56 +8776,56 @@
         <v>119</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="N3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="T3" s="16"/>
       <c r="U3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="AB3" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8846,50 +8851,50 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>148</v>
-      </c>
       <c r="S4" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC4" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9564,7 +9569,7 @@
     </row>
     <row r="13" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>16</v>
@@ -9818,7 +9823,7 @@
     </row>
     <row r="16" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>16</v>
@@ -10960,7 +10965,7 @@
     </row>
     <row r="30" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>16</v>
@@ -15078,7 +15083,7 @@
     </row>
     <row r="78" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>16</v>
@@ -15322,7 +15327,7 @@
     </row>
     <row r="81" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>16</v>
@@ -15478,7 +15483,7 @@
     </row>
     <row r="83" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>16</v>
@@ -15554,7 +15559,7 @@
     </row>
     <row r="84" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B84" s="24" t="s">
         <v>16</v>
@@ -16580,7 +16585,7 @@
     </row>
     <row r="96" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B96" s="24" t="s">
         <v>16</v>
@@ -17497,7 +17502,7 @@
         <v>2.4</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA106" s="2">
         <f t="shared" si="26"/>
